--- a/data/cicero_projects_overview_v5.xlsx
+++ b/data/cicero_projects_overview_v5.xlsx
@@ -1172,10 +1172,14 @@
           <t>https://cicero.oslo.no/no/prosjekter/europes-evolving-market-design-towards-2040-electricity-market-reform-and-decision-making-during-its-implementation-copy</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://cicero.oslo.no/en/projects/europes-evolving-market-design-towards-2040-electricity-market-reform-and-decision-making-during-its-implementation</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -2552,10 +2556,14 @@
           <t>https://cicero.oslo.no/no/prosjekter/enbel-klima-og-helseeffekter</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://cicero.oslo.no/en/projects/enbel</t>
+        </is>
+      </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -3210,10 +3218,14 @@
           <t>https://cicero.oslo.no/no/prosjekter/include-forskningssenter-for-sosialt-inkluderende-energiomstilling</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr"/>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://cicero.oslo.no/en/projects/include</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -7497,10 +7509,14 @@
           <t>https://cicero.oslo.no/no/prosjekter/icos-norway--integrert-karbonobservasjonssystem</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr"/>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>https://cicero.oslo.no/en/projects/icos</t>
+        </is>
+      </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -8911,10 +8927,14 @@
           <t>https://cicero.oslo.no/no/prosjekter/accept-aerosoler-skyendringer-og-varmetransport-inn-i-polare-omrader-og-viktigheten-av-lokale-tilbakekoblinger</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr"/>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>https://cicero.oslo.no/en/projects/accept</t>
+        </is>
+      </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -9486,7 +9506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O82"/>
+  <dimension ref="A1:O77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9684,12 +9704,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>EVOLVE - Utviklingen av Europas strømmarked frem mot 2040: Reform av elektrisitetsmarkedet og hvordan beslutninger taes underveis</t>
+          <t>ZEESA - Hvordan utvikle nullutslippsenergisystemer for Arktis</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://cicero.oslo.no/no/prosjekter/europes-evolving-market-design-towards-2040-electricity-market-reform-and-decision-making-during-its-implementation-copy</t>
+          <t>https://cicero.oslo.no/no/prosjekter/zeesa-hvordan-utvikle-nullutslippsenergisystemer-for-arktis</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -9700,17 +9720,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>29.4.2025</t>
+          <t>1.1.2023</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>29.4.2029</t>
+          <t>31.12.2026</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>29.4.2025 - 29.4.2029</t>
+          <t>1.1.2023 - 31.12.2026</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -9720,17 +9740,17 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Norges forskningsråd</t>
+          <t>Norges Forskningsråd</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Fornybar energi, Energipolitikk i Norge, Energipolitikk i EU, Klimapolitikk internasjonalt, Klimapolitikk i Norge</t>
+          <t>Arktis, Fornybar energi, Teknologi for omstilling, Aksept</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Klimapolitikk</t>
+          <t>Klima og samfunn</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -9740,23 +9760,23 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Torbjørg Jevnaker, Marie Lindberg, Elin Lerum Boasson, Gunnell Erika Sandanger</t>
+          <t>Karina Standal, Tom Julsrud, Astrid Arnslett</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ZEESA - Hvordan utvikle nullutslippsenergisystemer for Arktis</t>
+          <t>eLife – hvordan sirkulere mer elektronikk</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://cicero.oslo.no/no/prosjekter/zeesa-hvordan-utvikle-nullutslippsenergisystemer-for-arktis</t>
+          <t>https://cicero.oslo.no/no/prosjekter/elife--hvordan-sirkulere-mer-elektronikk</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -9767,17 +9787,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.1.2023</t>
+          <t>30.6.2023</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>31.12.2026</t>
+          <t>30.6.2026</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.1.2023 - 31.12.2026</t>
+          <t>30.6.2023 - 30.6.2026</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -9792,7 +9812,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Arktis, Fornybar energi, Teknologi for omstilling, Aksept</t>
+          <t>Sirkulærøkonomi</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -9807,23 +9827,23 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Karina Standal, Tom Julsrud, Astrid Arnslett</t>
+          <t>Tom Julsrud, Monica Guillen-Royo, Marianne Aasen, Borgar Aamaas, Emil Dæhlin, Astrid Arnslett, Karen Haugs Langvik</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>eLife – hvordan sirkulere mer elektronikk</t>
+          <t>TWEX – Hvordan forstå fremtidens ekstremvær i Norge bedre</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://cicero.oslo.no/no/prosjekter/elife--hvordan-sirkulere-mer-elektronikk</t>
+          <t>https://cicero.oslo.no/no/prosjekter/twex</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -9834,37 +9854,37 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>30.6.2023</t>
+          <t>1.1.2016</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>30.6.2026</t>
+          <t>31.3.2018</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>30.6.2023 - 30.6.2026</t>
+          <t>1.1.2016 - 31.3.2018</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>pågående</t>
+          <t>avsluttet</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Norges Forskningsråd</t>
+          <t>Norges forskningsråd</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Sirkulærøkonomi</t>
+          <t>Virkninger av klimaendringer i Norge, Tilpasning i Norge, Nedbørsendringer, Klimarisiko, Flom, Ekstremvær</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Klima og samfunn</t>
+          <t>Klima og samfunn, Klima- og naturrisiko</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -9874,23 +9894,23 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Tom Julsrud, Monica Guillen-Royo, Marianne Aasen, Borgar Aamaas, Emil Dæhlin, Astrid Arnslett, Karen Haugs Langvik</t>
+          <t>Jana Sillmann, Helene Amundsen, Nathalie Schaller</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>TWEX – Hvordan forstå fremtidens ekstremvær i Norge bedre</t>
+          <t>ClimateXL - Physical and statistical analysis of climate extremes in large datasets</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://cicero.oslo.no/no/prosjekter/twex</t>
+          <t>https://cicero.oslo.no/no/prosjekter/climatexl</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -9901,17 +9921,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.1.2016</t>
+          <t>1.1.2015</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>31.3.2018</t>
+          <t>31.12.2019</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.1.2016 - 31.3.2018</t>
+          <t>1.1.2015 - 31.12.2019</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -9921,17 +9941,17 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Norges forskningsråd</t>
+          <t>Research Council of Norway</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Virkninger av klimaendringer i Norge, Tilpasning i Norge, Nedbørsendringer, Klimarisiko, Flom, Ekstremvær</t>
+          <t>Tilpasning, Virkninger av klimaendringer internasjonalt, Virkninger av klimaendringer i Norge, Tilpasning i Norge, Klimamodeller, Ekstremvær</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Klima og samfunn, Klima- og naturrisiko</t>
+          <t>Klima- og naturrisiko</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -9939,25 +9959,21 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>Jana Sillmann, Helene Amundsen, Nathalie Schaller</t>
-        </is>
-      </c>
+      <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ClimateXL - Physical and statistical analysis of climate extremes in large datasets</t>
+          <t>Bærekraftig forsikring og klimatilpasning</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://cicero.oslo.no/no/prosjekter/climatexl</t>
+          <t>https://cicero.oslo.no/no/prosjekter/baerekraftig-forsikring-og-klimatilpasning</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -9968,17 +9984,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.1.2015</t>
+          <t>29.9.2023</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>31.12.2019</t>
+          <t>29.9.2024</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.1.2015 - 31.12.2019</t>
+          <t>29.9.2023 - 29.9.2024</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -9988,17 +10004,17 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Research Council of Norway</t>
+          <t>If/SIVL</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Tilpasning, Virkninger av klimaendringer internasjonalt, Virkninger av klimaendringer i Norge, Tilpasning i Norge, Klimamodeller, Ekstremvær</t>
+          <t>Tilpasning, Tilpasning i Norge, Oppdragsforskning</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Klima- og naturrisiko</t>
+          <t>Klimaøkonomi</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -10006,21 +10022,25 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Sofie Skjeflo, Emil Dæhlin, Astrid Arnslett, Nina Bruvik Westberg</t>
+        </is>
+      </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Bærekraftig forsikring og klimatilpasning</t>
+          <t>VIPPOM</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://cicero.oslo.no/no/prosjekter/baerekraftig-forsikring-og-klimatilpasning</t>
+          <t>https://cicero.oslo.no/no/prosjekter/vippom</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -10031,17 +10051,17 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>29.9.2023</t>
+          <t>1.2.2024</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>29.9.2024</t>
+          <t>31.12.2025</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>29.9.2023 - 29.9.2024</t>
+          <t>1.2.2024 - 31.12.2025</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -10049,19 +10069,15 @@
           <t>avsluttet</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>If/SIVL</t>
-        </is>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Tilpasning, Tilpasning i Norge, Oppdragsforskning</t>
+          <t>Aksept, Forbruksendringer, Klimapolitikk i Norge, Rettferdig omstilling, CO2-utslipp i Norge, Sirkulærøkonomi</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Klimaøkonomi</t>
+          <t>Klima og samfunn</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -10071,23 +10087,23 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Sofie Skjeflo, Emil Dæhlin, Astrid Arnslett, Nina Bruvik Westberg</t>
+          <t>Marianne Aasen, Sofie Skjeflo, Monica Guillen-Royo, Ingrid Christensen, Nora Ytreberg, Emil Dæhlin, Tom Julsrud, Astrid Arnslett, Eilif Ursin Reed, Ida Sognnæs</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ENBEL: Kobler sammen forskning på klima og helseeffekter</t>
+          <t>NOREGRET: Norge i den grønne europeiske omstillingen</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://cicero.oslo.no/no/prosjekter/enbel-klima-og-helseeffekter</t>
+          <t>https://cicero.oslo.no/no/prosjekter/noregret-norge-i-den-gronne-europeiske-omstillingen</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -10098,37 +10114,37 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.11.2020</t>
+          <t>1.7.2023</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>31.1.2024</t>
+          <t>30.6.2026</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.11.2020 - 31.1.2024</t>
+          <t>1.7.2023 - 30.6.2026</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>avsluttet</t>
+          <t>pågående</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>EU Horizon 2020</t>
+          <t>Norges Forskningsråd</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Virkninger av klimaendringer internasjonalt, Luftforurensning, Hetebølger, Helse, Ekstremvær</t>
+          <t>Fornybar energi, Hydrogen, Aksept, Klimapolitikk i EU</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Klima og helse</t>
+          <t>Klimaøkonomi</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -10138,27 +10154,23 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Kristin Aunan, Miriam Dahl, Sigrid Rian Song, Gunnell Erika Sandanger, Ida Håbrekke, Suzanne Day, Eilif Ursin Reed, Erik Tollefsen, Marianne Tronstad Lund</t>
+          <t>Asbjørn Torvanger, Merethe Dotterud Leiren, Taoyuan Wei, Steffen Kallbekken, Marie Lindberg, Nina Bruvik Westberg, Hege Fantoft Andreassen</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>9</v>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>https://www.enbel-project.eu/Prosjektet</t>
-        </is>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>VIPPOM</t>
+          <t>FLYWELL – hvordan redusere flyreiser og samtidig opprettholde høy livskvalitet.</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://cicero.oslo.no/no/prosjekter/vippom</t>
+          <t>https://cicero.oslo.no/no/prosjekter/flywell--hvordan-redusere-flyreiser-og-samtidig-opprettholde-hoy-livskvalitet</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -10169,28 +10181,32 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.2.2024</t>
+          <t>1.9.2023</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>31.12.2025</t>
+          <t>31.12.2026</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.2.2024 - 31.12.2025</t>
+          <t>1.9.2023 - 31.12.2026</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>avsluttet</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>pågående</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Norges Forskningsråd</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Aksept, Forbruksendringer, Klimapolitikk i Norge, Rettferdig omstilling, CO2-utslipp i Norge, Sirkulærøkonomi</t>
+          <t>Transport, Rettferdig omstilling, Forbruksendringer</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -10205,23 +10221,23 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Marianne Aasen, Sofie Skjeflo, Monica Guillen-Royo, Ingrid Christensen, Nora Ytreberg, Emil Dæhlin, Tom Julsrud, Astrid Arnslett, Eilif Ursin Reed, Ida Sognnæs</t>
+          <t>Monica Guillen-Royo, Tom Julsrud, Borgar Aamaas, Emil Dæhlin, Astrid Arnslett</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>NOREGRET: Norge i den grønne europeiske omstillingen</t>
+          <t>Rammeavtale med UD</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://cicero.oslo.no/no/prosjekter/noregret-norge-i-den-gronne-europeiske-omstillingen</t>
+          <t>https://cicero.oslo.no/no/prosjekter/rammeavtale-med-ud</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -10230,65 +10246,41 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1.7.2023</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>30.6.2026</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>1.7.2023 - 30.6.2026</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>pågående</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Norges Forskningsråd</t>
-        </is>
-      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Fornybar energi, Hydrogen, Aksept, Klimapolitikk i EU</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>Klimaøkonomi</t>
-        </is>
-      </c>
+          <t>Oppdragsforskning</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Asbjørn Torvanger, Merethe Dotterud Leiren, Taoyuan Wei, Steffen Kallbekken, Marie Lindberg, Nina Bruvik Westberg, Hege Fantoft Andreassen</t>
+          <t>Borgar Aamaas, Solveig Aamodt</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>FLYWELL – hvordan redusere flyreiser og samtidig opprettholde høy livskvalitet.</t>
+          <t>Hvordan få forbrukere til å ta energismarte valg? (CONSEED)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://cicero.oslo.no/no/prosjekter/flywell--hvordan-redusere-flyreiser-og-samtidig-opprettholde-hoy-livskvalitet</t>
+          <t>https://cicero.oslo.no/no/prosjekter/CONSEED</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -10299,37 +10291,37 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.9.2023</t>
+          <t>1.12.2016</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>31.12.2026</t>
+          <t>30.11.2019</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.9.2023 - 31.12.2026</t>
+          <t>1.12.2016 - 30.11.2019</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>pågående</t>
+          <t>avsluttet</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Norges Forskningsråd</t>
+          <t>EU Horizon 2020</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Transport, Rettferdig omstilling, Forbruksendringer</t>
+          <t>Forbruksendringer, Energipolitikk i EU, Energiforbruk</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Klima og samfunn</t>
+          <t>Klimaøkonomi</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -10339,23 +10331,23 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Monica Guillen-Royo, Tom Julsrud, Borgar Aamaas, Emil Dæhlin, Astrid Arnslett</t>
+          <t>Steffen Kallbekken, Miriam Dahl, Håkon Sælen, Erlend Andre Tveiten Hermansen</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Rammeavtale med UD</t>
+          <t>Greening investments in the face of climate risk</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://cicero.oslo.no/no/prosjekter/rammeavtale-med-ud</t>
+          <t>https://cicero.oslo.no/no/prosjekter/https-cicero.oslo.no-no-posts-projects-greening-investments</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -10371,7 +10363,7 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Oppdragsforskning</t>
+          <t>Klimafinans</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -10380,25 +10372,21 @@
           <t>No</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>Borgar Aamaas, Solveig Aamodt</t>
-        </is>
-      </c>
+      <c r="M14" t="inlineStr"/>
       <c r="N14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Hvordan få forbrukere til å ta energismarte valg? (CONSEED)</t>
+          <t>Klimatilpasning i norske kommuner 2019</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://cicero.oslo.no/no/prosjekter/CONSEED</t>
+          <t>https://cicero.oslo.no/no/prosjekter/klimatilpasning-i-norske-kommuner-2019</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -10409,17 +10397,17 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.12.2016</t>
+          <t>1.1.2019</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>30.11.2019</t>
+          <t>31.12.2019</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1.12.2016 - 30.11.2019</t>
+          <t>1.1.2019 - 31.12.2019</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -10429,43 +10417,39 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>EU Horizon 2020</t>
+          <t>If</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Forbruksendringer, Energipolitikk i EU, Energiforbruk</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Klimaøkonomi</t>
-        </is>
-      </c>
+          <t>Oppdragsforskning, Tilpasning i Norge</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Steffen Kallbekken, Miriam Dahl, Håkon Sælen, Erlend Andre Tveiten Hermansen</t>
+          <t>Marit Klemetsen, Miriam Dahl</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Include - Forskningssenter for sosialt inkluderende energiomstilling</t>
+          <t>JPI AR5</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://cicero.oslo.no/no/prosjekter/include-forskningssenter-for-sosialt-inkluderende-energiomstilling</t>
+          <t>https://cicero.oslo.no/no/prosjekter/jpi-ar5</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -10476,51 +10460,47 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.3.2020</t>
+          <t>19.8.2013</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.3.2028</t>
+          <t>31.12.2016</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1.3.2020 - 1.3.2028</t>
+          <t>19.8.2013 - 31.12.2016</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>pågående</t>
+          <t>avsluttet</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Norges Forskningsråd</t>
+          <t>Norges forskningsråd</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Rettferdig omstilling</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>Klima og samfunn</t>
-        </is>
-      </c>
+          <t>Klimakommunikasjon</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Karina Standal, Anders Tønnesen, Marianne Aasen, Ingrid Christensen, Tom Julsrud, Monica Guillen-Royo, Mikkel Vindegg, Astrid Arnslett</t>
+          <t>Christian Bjørnæs, Erlend Andre Tveiten Hermansen, Asuncion Lera Clair</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="O16" t="inlineStr"/>
     </row>
@@ -10532,7 +10512,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://cicero.oslo.no/no/prosjekter/https-cicero.oslo.no-no-posts-projects-greening-investments</t>
+          <t>https://cicero.oslo.no/no/prosjekter/greening-investments-in-the-face-of-climate-risk</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -10551,27 +10531,35 @@
           <t>Klimafinans</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Klimaøkonomi</t>
+        </is>
+      </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr"/>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Asbjørn Torvanger</t>
+        </is>
+      </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Klimatilpasning i norske kommuner 2019</t>
+          <t>Klimatilpasning i norske kommuner 2020</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://cicero.oslo.no/no/prosjekter/klimatilpasning-i-norske-kommuner-2019</t>
+          <t>https://cicero.oslo.no/no/prosjekter/klimatilpasning-i-norske-kommuner-2020</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -10582,17 +10570,17 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.1.2019</t>
+          <t>1.1.2020</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>31.12.2019</t>
+          <t>31.12.2020</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1.1.2019 - 31.12.2019</t>
+          <t>1.1.2020 - 31.12.2020</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -10610,10 +10598,14 @@
           <t>Oppdragsforskning, Tilpasning i Norge</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Klimaøkonomi</t>
+        </is>
+      </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -10629,12 +10621,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>JPI AR5</t>
+          <t>Klimavalg 2017</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://cicero.oslo.no/no/prosjekter/jpi-ar5</t>
+          <t>https://cicero.oslo.no/no/prosjekter/klimavalg-2017</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -10645,17 +10637,17 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>19.8.2013</t>
+          <t>1.3.2017</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>31.12.2016</t>
+          <t>30.10.2017</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>19.8.2013 - 31.12.2016</t>
+          <t>1.3.2017 - 30.10.2017</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -10670,7 +10662,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Klimakommunikasjon</t>
+          <t>Klimakommunikasjon, Transport, Karbonfangst og lagring</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -10681,23 +10673,23 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Christian Bjørnæs, Erlend Andre Tveiten Hermansen, Asuncion Lera Clair</t>
+          <t>Bård Lahn, Astrid Arnslett, Christian Bjørnæs, Steffen Kallbekken, Marianne Aasen, Asbjørn Torvanger</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Greening investments in the face of climate risk</t>
+          <t>Global Weirding</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://cicero.oslo.no/no/prosjekter/greening-investments-in-the-face-of-climate-risk</t>
+          <t>https://cicero.oslo.no/no/prosjekter/global-weirding</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -10706,45 +10698,61 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1.5.2014</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>31.1.2015</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.5.2014 - 31.1.2015</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>avsluttet</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Nordisk ministerråd og Norges forskningsråd</t>
+        </is>
+      </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Klimafinans</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>Klimaøkonomi</t>
-        </is>
-      </c>
+          <t>Klimakommunikasjon</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>Asbjørn Torvanger</t>
+          <t>Christian Bjørnæs, Tiina Ruohonen</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Klimatilpasning i norske kommuner 2020</t>
+          <t>Global Framework for Climate Services Adaptation Programme in Africa</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://cicero.oslo.no/no/prosjekter/klimatilpasning-i-norske-kommuner-2020</t>
+          <t>https://cicero.oslo.no/no/prosjekter/global-framework-for-climate-services-adaptation-programme-in-africa</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -10755,17 +10763,17 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.1.2020</t>
+          <t>21.1.2014</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>31.12.2020</t>
+          <t>1.7.2017</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1.1.2020 - 31.12.2020</t>
+          <t>21.1.2014 - 1.7.2017</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -10775,17 +10783,17 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>If</t>
+          <t>World Meteorological Organization</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Oppdragsforskning, Tilpasning i Norge</t>
+          <t>Klimatjenester, Tilpasning</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Klimaøkonomi</t>
+          <t>Klima og samfunn</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -10795,7 +10803,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Marit Klemetsen, Miriam Dahl</t>
+          <t>Bob van Oort, Christian Bjørnæs</t>
         </is>
       </c>
       <c r="N21" t="n">
@@ -10806,12 +10814,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Klimavalg 2017</t>
+          <t>Leveraging private climate finance: Lessons from international and domestic best practices</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://cicero.oslo.no/no/prosjekter/klimavalg-2017</t>
+          <t>https://cicero.oslo.no/no/prosjekter/leveraging-private-climate-finance-lessons-from-international-and-domestic-best-practices</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -10820,61 +10828,33 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>1.3.2017</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>30.10.2017</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>1.3.2017 - 30.10.2017</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>avsluttet</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>Norges forskningsråd</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Klimakommunikasjon, Transport, Karbonfangst og lagring</t>
-        </is>
-      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>Bård Lahn, Astrid Arnslett, Christian Bjørnæs, Steffen Kallbekken, Marianne Aasen, Asbjørn Torvanger</t>
-        </is>
-      </c>
+      <c r="M22" t="inlineStr"/>
       <c r="N22" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Global Weirding</t>
+          <t>Future Narratives</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://cicero.oslo.no/no/prosjekter/global-weirding</t>
+          <t>https://cicero.oslo.no/no/prosjekter/future-narratives</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -10885,17 +10865,17 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.5.2014</t>
+          <t>1.6.2015</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>31.1.2015</t>
+          <t>31.12.2015</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1.5.2014 - 31.1.2015</t>
+          <t>1.6.2015 - 31.12.2015</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -10905,39 +10885,43 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Nordisk ministerråd og Norges forskningsråd</t>
+          <t>Norges forskningsråd</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Klimakommunikasjon</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr"/>
+          <t>Virkninger av klimaendringer i Norge, Tilpasning i Norge</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Klima og samfunn</t>
+        </is>
+      </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Christian Bjørnæs, Tiina Ruohonen</t>
+          <t>Bob van Oort</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Global Framework for Climate Services Adaptation Programme in Africa</t>
+          <t>Fornybar energipolitikk i Europa: Hvilken retning går vi i?</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://cicero.oslo.no/no/prosjekter/global-framework-for-climate-services-adaptation-programme-in-africa</t>
+          <t>https://cicero.oslo.no/no/prosjekter/fornybar-energipolitikk-i-europa</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -10948,17 +10932,17 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>21.1.2014</t>
+          <t>4.5.2015</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1.7.2017</t>
+          <t>31.5.2019</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>21.1.2014 - 1.7.2017</t>
+          <t>4.5.2015 - 31.5.2019</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -10968,17 +10952,17 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>World Meteorological Organization</t>
+          <t>Norges forskningsråd</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Klimatjenester, Tilpasning</t>
+          <t>Fornybar energi, Energipolitikk i Norge, Energipolitikk i EU</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Klima og samfunn</t>
+          <t>Klimapolitikk</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -10988,23 +10972,27 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Bob van Oort, Christian Bjørnæs</t>
+          <t>Merethe Dotterud Leiren, Elin Lerum Boasson</t>
         </is>
       </c>
       <c r="N24" t="n">
         <v>2</v>
       </c>
-      <c r="O24" t="inlineStr"/>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>https://livestream.com/accounts/3722443/events/8200557En</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Leveraging private climate finance: Lessons from international and domestic best practices</t>
+          <t>FLEXEFFECT - Den fleksible forbruker: barrierer, muligheter og effekter</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://cicero.oslo.no/no/prosjekter/leveraging-private-climate-finance-lessons-from-international-and-domestic-best-practices</t>
+          <t>https://cicero.oslo.no/no/prosjekter/flexeffect-den-fleksible-forbruker-barrierer-muligheter-og-effekter</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -11013,33 +11001,65 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>1.6.2019</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>31.5.2023</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.6.2019 - 31.5.2023</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>avsluttet</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Norges Forskningsråd</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Fornybar energi, Energiforbruk, Energipolitikk i Norge, Forbruksendringer</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Klima og samfunn</t>
+        </is>
+      </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr"/>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Karina Standal, Astrid Arnslett, Marianne Aasen, Tom Julsrud, Mikkel Vindegg, Ingrid Christensen</t>
+        </is>
+      </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Future Narratives</t>
+          <t>NETBC-Kvantifisering av den samlede klimapåvirkningen til sot</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://cicero.oslo.no/no/prosjekter/future-narratives</t>
+          <t>https://cicero.oslo.no/no/prosjekter/netbc</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -11048,39 +11068,23 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>1.6.2015</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>31.12.2015</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>1.6.2015 - 31.12.2015</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>avsluttet</t>
-        </is>
-      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Norges forskningsråd</t>
+          <t>Forskningsrådet</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Virkninger av klimaendringer i Norge, Tilpasning i Norge</t>
+          <t>Partikler i atmosfæren, Luftforurensning</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Klima og samfunn</t>
+          <t>Klimasystemet</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -11090,23 +11094,23 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Bob van Oort</t>
+          <t>Camilla Weum Stjern, Bjørn Hallvard Samset, Øivind Hodnebrog</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Fornybar energipolitikk i Europa: Hvilken retning går vi i?</t>
+          <t>NorthWesternPaths</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://cicero.oslo.no/no/prosjekter/fornybar-energipolitikk-i-europa</t>
+          <t>https://cicero.oslo.no/no/prosjekter/northwesternpaths</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -11115,39 +11119,19 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>4.5.2015</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>31.5.2019</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>4.5.2015 - 31.5.2019</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>avsluttet</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>Norges forskningsråd</t>
-        </is>
-      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Fornybar energi, Energipolitikk i Norge, Energipolitikk i EU</t>
+          <t>CO2-utslipp globalt</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Klimapolitikk</t>
+          <t>Utslippsreduksjoner</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -11157,27 +11141,23 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Merethe Dotterud Leiren, Elin Lerum Boasson</t>
+          <t>Robbie Andrew, Anne Sophie Daloz, Bob van Oort</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>2</v>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>https://livestream.com/accounts/3722443/events/8200557En</t>
-        </is>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="O27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>FLEXEFFECT - Den fleksible forbruker: barrierer, muligheter og effekter</t>
+          <t>Omstilling til et lavutslippssamfunn</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://cicero.oslo.no/no/prosjekter/flexeffect-den-fleksible-forbruker-barrierer-muligheter-og-effekter</t>
+          <t>https://cicero.oslo.no/no/prosjekter/omstilling-til-et-lavutslippssamfunn</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -11188,17 +11168,17 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.6.2019</t>
+          <t>1.3.2016</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>31.5.2023</t>
+          <t>31.12.2016</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1.6.2019 - 31.5.2023</t>
+          <t>1.3.2016 - 31.12.2016</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -11208,12 +11188,12 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Norges Forskningsråd</t>
+          <t>KS</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Fornybar energi, Energiforbruk, Energipolitikk i Norge, Forbruksendringer</t>
+          <t>Klimaomstilling i norske kommuner</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -11228,23 +11208,23 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Karina Standal, Astrid Arnslett, Marianne Aasen, Tom Julsrud, Mikkel Vindegg, Ingrid Christensen</t>
+          <t>Helene Amundsen</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>NETBC-Kvantifisering av den samlede klimapåvirkningen til sot</t>
+          <t>Oppdatering av kunnskap om konsekvenser av klimaendringer i Norge</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://cicero.oslo.no/no/prosjekter/netbc</t>
+          <t>https://cicero.oslo.no/no/prosjekter/oppdatering-av-kunnskap-om-konsekvenser-av-klimaendringer-i-norge</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -11253,49 +11233,49 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>Forskningsrådet</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>Partikler i atmosfæren, Luftforurensning</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>Klimasystemet</t>
-        </is>
-      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1.6.2018</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>31.12.2018</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.6.2018 - 31.12.2018</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>avsluttet</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>Camilla Weum Stjern, Bjørn Hallvard Samset, Øivind Hodnebrog</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr"/>
       <c r="N29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>NorthWesternPaths</t>
+          <t>ENABLE - hvorfor velger vi grønn energi</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://cicero.oslo.no/no/prosjekter/northwesternpaths</t>
+          <t>https://cicero.oslo.no/no/prosjekter/enable-hvorfor-velger-vi-gronn-energi</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -11304,19 +11284,39 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1.3.2017</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.3.2020</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.3.2017 - 1.3.2020</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>avsluttet</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Horizon 2020, under tildelingsnummer 727524</t>
+        </is>
+      </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>CO2-utslipp globalt</t>
+          <t>Fornybar energi</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Utslippsreduksjoner</t>
+          <t>Klima og samfunn</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -11324,25 +11324,21 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>Robbie Andrew, Anne Sophie Daloz, Bob van Oort</t>
-        </is>
-      </c>
+      <c r="M30" t="inlineStr"/>
       <c r="N30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Omstilling til et lavutslippssamfunn</t>
+          <t>PLATON</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://cicero.oslo.no/no/prosjekter/omstilling-til-et-lavutslippssamfunn</t>
+          <t>https://cicero.oslo.no/no/prosjekter/platon</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -11353,17 +11349,17 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.3.2016</t>
+          <t>1.5.2019</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>31.12.2016</t>
+          <t>31.12.2023</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>1.3.2016 - 31.12.2016</t>
+          <t>1.5.2019 - 31.12.2023</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -11373,17 +11369,13 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>KS</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>Klimaomstilling i norske kommuner</t>
-        </is>
-      </c>
+          <t>Norges forskningsråd</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Klima og samfunn</t>
+          <t>Klimapolitikk, Klimaøkonomi</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -11393,23 +11385,27 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>Helene Amundsen</t>
+          <t>Bob van Oort, Gunnell Erika Sandanger, Erlend Andre Tveiten Hermansen, Fay Madeleine Farstad, Merethe Dotterud Leiren, Taran Fæhn, Asbjørn Torvanger, Marianne Aasen, Marit Klemetsen</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>1</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
+        <v>9</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>https://www.platonklima.no/PLATON</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Oppdatering av kunnskap om konsekvenser av klimaendringer i Norge</t>
+          <t>Enable</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://cicero.oslo.no/no/prosjekter/oppdatering-av-kunnskap-om-konsekvenser-av-klimaendringer-i-norge</t>
+          <t>https://cicero.oslo.no/no/prosjekter/enable</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -11420,17 +11416,17 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.6.2018</t>
+          <t>1.1.2020</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>31.12.2018</t>
+          <t>31.12.2023</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>1.6.2018 - 31.12.2018</t>
+          <t>1.1.2020 - 31.12.2023</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -11438,29 +11434,45 @@
           <t>avsluttet</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Norges Forskningsråd</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Vindkraft, Fornybar energi, Transport, Energipolitikk i EU</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Klimaøkonomi</t>
+        </is>
+      </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr"/>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Steffen Kallbekken, Merethe Dotterud Leiren, Tom Julsrud, Hege Fantoft Andreassen, Sofie Skjeflo</t>
+        </is>
+      </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ENABLE - hvorfor velger vi grønn energi</t>
+          <t>ECONOR III – The Economy of the North 2015</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://cicero.oslo.no/no/prosjekter/enable-hvorfor-velger-vi-gronn-energi</t>
+          <t>https://cicero.oslo.no/no/prosjekter/econor-iii--the-economy-of-the-north-2015</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -11471,17 +11483,17 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.3.2017</t>
+          <t>1.11.2013</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1.3.2020</t>
+          <t>1.6.2016</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>1.3.2017 - 1.3.2020</t>
+          <t>1.11.2013 - 1.6.2016</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -11491,17 +11503,17 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Horizon 2020, under tildelingsnummer 727524</t>
+          <t>Statistisk sentralbyrå</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Fornybar energi</t>
+          <t>Arktis</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Klima og samfunn</t>
+          <t>Klimaøkonomi</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -11509,21 +11521,25 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>Bob van Oort, Solveig Glomsrød, Helene Amundsen</t>
+        </is>
+      </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>PLATON</t>
+          <t>CRiceS - hvordan havis og snø påvirker klimaframtiden vår</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://cicero.oslo.no/no/prosjekter/platon</t>
+          <t>https://cicero.oslo.no/no/prosjekter/crices-hvordan-havis-og-sno-pavirker-klimaframtiden-var</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -11534,17 +11550,17 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.5.2019</t>
+          <t>1.9.2021</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>31.12.2023</t>
+          <t>31.8.2025</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>1.5.2019 - 31.12.2023</t>
+          <t>1.9.2021 - 31.8.2025</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -11554,13 +11570,17 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Norges forskningsråd</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr"/>
+          <t>Horizon EUROPA</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Arktis, Klimamodeller</t>
+        </is>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Klimapolitikk, Klimaøkonomi</t>
+          <t>Klimasystemet</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -11570,27 +11590,23 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Bob van Oort, Gunnell Erika Sandanger, Erlend Andre Tveiten Hermansen, Fay Madeleine Farstad, Merethe Dotterud Leiren, Taran Fæhn, Asbjørn Torvanger, Marianne Aasen, Marit Klemetsen</t>
+          <t>Marianne Tronstad Lund, Carley Iles, Kalle Nordling, Bjørn Hallvard Samset, Astrid Arnslett</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>9</v>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>https://www.platonklima.no/PLATON</t>
-        </is>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="O34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Enable</t>
+          <t>S2S4E Klimatjenester for ren energi</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://cicero.oslo.no/no/prosjekter/enable</t>
+          <t>https://cicero.oslo.no/no/prosjekter/s2s4e</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -11601,17 +11617,17 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1.1.2020</t>
+          <t>1.12.2017</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>31.12.2023</t>
+          <t>1.12.2020</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>1.1.2020 - 31.12.2023</t>
+          <t>1.12.2017 - 1.12.2020</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -11621,17 +11637,17 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Norges Forskningsråd</t>
+          <t>EU H2020</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Vindkraft, Fornybar energi, Transport, Energipolitikk i EU</t>
+          <t>Teknologi for omstilling, Fornybar energi</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Klimaøkonomi</t>
+          <t>Klimapolitikk</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -11641,23 +11657,23 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>Steffen Kallbekken, Merethe Dotterud Leiren, Tom Julsrud, Hege Fantoft Andreassen, Sofie Skjeflo</t>
+          <t>Jana Sillmann, Asbjørn Aaheim, Nathalie Schaller, Astrid Arnslett, Iselin Rønningsbakk, Erlend Andre Tveiten Hermansen</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ECONOR III – The Economy of the North 2015</t>
+          <t>CONNECT: Den internasjonale konteksten for overgangen til et lavutslippssamfunn</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://cicero.oslo.no/no/prosjekter/econor-iii--the-economy-of-the-north-2015</t>
+          <t>https://cicero.oslo.no/no/prosjekter/connect</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -11668,17 +11684,17 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1.11.2013</t>
+          <t>15.8.2017</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>1.6.2016</t>
+          <t>30.11.2022</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>1.11.2013 - 1.6.2016</t>
+          <t>15.8.2017 - 30.11.2022</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -11688,17 +11704,17 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Statistisk sentralbyrå</t>
+          <t>Norges Forskningsråd, programmet KLIMAFORSK</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Arktis</t>
+          <t>Klimapolitikk i Norge, Klimapolitikk i EU, CO2-utslipp i Norge</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Klimaøkonomi</t>
+          <t>Klimapolitikk</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -11708,23 +11724,23 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>Bob van Oort, Solveig Glomsrød, Helene Amundsen</t>
+          <t>Bård Lahn, Fay Madeleine Farstad, Merethe Dotterud Leiren, Erlend Andre Tveiten Hermansen, Solveig Aamodt</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CRiceS - hvordan havis og snø påvirker klimaframtiden vår</t>
+          <t>SHAREON - delingsøkonomi – motivasjoner, barrierer og klimaeffekter</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://cicero.oslo.no/no/prosjekter/crices-hvordan-havis-og-sno-pavirker-klimaframtiden-var</t>
+          <t>https://cicero.oslo.no/no/prosjekter/shareon-delingsokonomi--motivasjoner-barrierer-og-klimaeffekter</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -11735,17 +11751,17 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1.9.2021</t>
+          <t>1.1.2017</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>31.8.2025</t>
+          <t>31.3.2021</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>1.9.2021 - 31.8.2025</t>
+          <t>1.1.2017 - 31.3.2021</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -11755,17 +11771,17 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Horizon EUROPA</t>
+          <t>Norges Forskningsråd</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Arktis, Klimamodeller</t>
+          <t>Sirkulærøkonomi, Klimaomstilling i norske kommuner</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Klimasystemet</t>
+          <t>Klima og samfunn</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -11775,23 +11791,23 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Marianne Tronstad Lund, Carley Iles, Kalle Nordling, Bjørn Hallvard Samset, Astrid Arnslett</t>
+          <t>Karina Standal, Marianne Aasen, Astrid Arnslett, Steffen Kallbekken</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>S2S4E Klimatjenester for ren energi</t>
+          <t>COME RES - Utviklingen av lokale energisamfunn i Norge</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://cicero.oslo.no/no/prosjekter/s2s4e</t>
+          <t>https://cicero.oslo.no/no/prosjekter/come-res</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -11802,17 +11818,17 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>1.12.2017</t>
+          <t>1.9.2020</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>1.12.2020</t>
+          <t>1.2.2023</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>1.12.2017 - 1.12.2020</t>
+          <t>1.9.2020 - 1.2.2023</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -11822,43 +11838,39 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>EU H2020</t>
+          <t>EUs forsknings- og innovasjonsprogram Horisont 2020.</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Teknologi for omstilling, Fornybar energi</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>Klimapolitikk</t>
-        </is>
-      </c>
+          <t>Fornybar energi, Energiforbruk, Energipolitikk i EU</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Jana Sillmann, Asbjørn Aaheim, Nathalie Schaller, Astrid Arnslett, Iselin Rønningsbakk, Erlend Andre Tveiten Hermansen</t>
+          <t>Karina Standal, Stine Aakre, Merethe Dotterud Leiren, Nora Ytreberg, Hege Fantoft Andreassen</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>CONNECT: Den internasjonale konteksten for overgangen til et lavutslippssamfunn</t>
+          <t>CoCliME: Co-development of CLimate services for adaptation to changing Marine Ecosystems</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://cicero.oslo.no/no/prosjekter/connect</t>
+          <t>https://cicero.oslo.no/no/prosjekter/coclime</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -11869,17 +11881,17 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>15.8.2017</t>
+          <t>13.9.2017</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>30.11.2022</t>
+          <t>31.3.2021</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>15.8.2017 - 30.11.2022</t>
+          <t>13.9.2017 - 31.3.2021</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -11887,45 +11899,33 @@
           <t>avsluttet</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>Norges Forskningsråd, programmet KLIMAFORSK</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>Klimapolitikk i Norge, Klimapolitikk i EU, CO2-utslipp i Norge</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>Klimapolitikk</t>
-        </is>
-      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>Bård Lahn, Fay Madeleine Farstad, Merethe Dotterud Leiren, Erlend Andre Tveiten Hermansen, Solveig Aamodt</t>
+          <t>Jennifer West, Grete Hovelsrud</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>SHAREON - delingsøkonomi – motivasjoner, barrierer og klimaeffekter</t>
+          <t>Strøm fra folket</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://cicero.oslo.no/no/prosjekter/shareon-delingsokonomi--motivasjoner-barrierer-og-klimaeffekter</t>
+          <t>https://cicero.oslo.no/no/prosjekter/strom-fra-folket</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -11936,17 +11936,17 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1.1.2017</t>
+          <t>1.4.2015</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>31.3.2021</t>
+          <t>6.7.2018</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>1.1.2017 - 31.3.2021</t>
+          <t>1.4.2015 - 6.7.2018</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -11961,7 +11961,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Sirkulærøkonomi, Klimaomstilling i norske kommuner</t>
+          <t>Fornybar energi</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -11976,23 +11976,23 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Karina Standal, Marianne Aasen, Astrid Arnslett, Steffen Kallbekken</t>
+          <t>Astrid Arnslett</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>COME RES - Utviklingen av lokale energisamfunn i Norge</t>
+          <t>CICEP Senter for internasjonal klima- og energipolitikk</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://cicero.oslo.no/no/prosjekter/come-res</t>
+          <t>https://cicero.oslo.no/no/prosjekter/cicep-senter-for-internasjonal-klima-og-energipolitikk</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -12003,17 +12003,17 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1.9.2020</t>
+          <t>15.6.2018</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>1.2.2023</t>
+          <t>14.6.2020</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>1.9.2020 - 1.2.2023</t>
+          <t>15.6.2018 - 14.6.2020</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -12021,41 +12021,37 @@
           <t>avsluttet</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>EUs forsknings- og innovasjonsprogram Horisont 2020.</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Fornybar energi, Energiforbruk, Energipolitikk i EU</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Klimaøkonomi</t>
+        </is>
+      </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>Karina Standal, Stine Aakre, Merethe Dotterud Leiren, Nora Ytreberg, Hege Fantoft Andreassen</t>
+          <t>Steffen Kallbekken, Håkon Sælen, Solveig Aamodt, Solveig Glomsrød, Jan Ivar Korsbakken, Astrid Arnslett, Taoyuan Wei, Stine Aakre, Glen Peters, Robbie Andrew</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>CoCliME: Co-development of CLimate services for adaptation to changing Marine Ecosystems</t>
+          <t>Bærekraftige europeiske velferdssamfunn: Nye sammenhenger mellom velferds- og klimapolitikk</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://cicero.oslo.no/no/prosjekter/coclime</t>
+          <t>https://cicero.oslo.no/no/prosjekter/baerekraftige-europeiske-velferdssamfunn</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -12064,53 +12060,45 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>13.9.2017</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>31.3.2021</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>13.9.2017 - 31.3.2021</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>avsluttet</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Norges forskningsråd (VAM-programmet)</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Klimapolitikk internasjonalt, Klimapolitikk i Norge, Klimapolitikk i EU</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Klimapolitikk</t>
+        </is>
+      </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>Jennifer West, Grete Hovelsrud</t>
-        </is>
-      </c>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr"/>
       <c r="N42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Strøm fra folket</t>
+          <t>ToPDAd</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://cicero.oslo.no/no/prosjekter/strom-fra-folket</t>
+          <t>https://cicero.oslo.no/no/prosjekter/topdad</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -12121,17 +12109,17 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1.4.2015</t>
+          <t>1.10.2012</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>6.7.2018</t>
+          <t>30.9.2015</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>1.4.2015 - 6.7.2018</t>
+          <t>1.10.2012 - 30.9.2015</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -12141,17 +12129,17 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Norges Forskningsråd</t>
+          <t>EU FP7</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Fornybar energi</t>
+          <t>Virkninger av klimaendringer internasjonalt, Tilpasning</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Klima og samfunn</t>
+          <t>Klimaøkonomi</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -12161,23 +12149,23 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>Astrid Arnslett</t>
+          <t>Asbjørn Aaheim, Anton Orlov, Bob van Oort</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>CICEP Senter for internasjonal klima- og energipolitikk</t>
+          <t>Byvekstavtalenes bidrag til en bærekraftig areal- og transportutvikling</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://cicero.oslo.no/no/prosjekter/cicep-senter-for-internasjonal-klima-og-energipolitikk</t>
+          <t>https://cicero.oslo.no/no/prosjekter/byvekstavtalenes-bidrag-til-en-baerekraftig-areal-og-transportutvikling</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -12188,17 +12176,17 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>15.6.2018</t>
+          <t>1.9.2016</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>14.6.2020</t>
+          <t>31.12.2019</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>15.6.2018 - 14.6.2020</t>
+          <t>1.9.2016 - 31.12.2019</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -12206,11 +12194,19 @@
           <t>avsluttet</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Norges Forskningsråd</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Transport, Arealbruk</t>
+        </is>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Klimaøkonomi</t>
+          <t>Klima og samfunn</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -12220,23 +12216,23 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>Steffen Kallbekken, Håkon Sælen, Solveig Aamodt, Solveig Glomsrød, Jan Ivar Korsbakken, Astrid Arnslett, Taoyuan Wei, Stine Aakre, Glen Peters, Robbie Andrew</t>
+          <t>Helene Amundsen, Anders Tønnesen, Astrid Arnslett</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="O44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Bærekraftige europeiske velferdssamfunn: Nye sammenhenger mellom velferds- og klimapolitikk</t>
+          <t>Adaptation Actions for a Changing Arctic (AACA)</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://cicero.oslo.no/no/prosjekter/baerekraftige-europeiske-velferdssamfunn</t>
+          <t>https://cicero.oslo.no/no/prosjekter/adaptation-actions-for-a-changing-arctic-aaca</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -12245,23 +12241,39 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>1.4.2013</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>31.12.2015</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>1.4.2013 - 31.12.2015</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>avsluttet</t>
+        </is>
+      </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Norges forskningsråd (VAM-programmet)</t>
+          <t>AMAP - Artic Monitoring and Assessment Programme</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Klimapolitikk internasjonalt, Klimapolitikk i Norge, Klimapolitikk i EU</t>
+          <t>Arktis</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Klimapolitikk</t>
+          <t>Klima og samfunn, Utslippsreduksjoner</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -12269,21 +12281,25 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>Bob van Oort, Glen Peters</t>
+        </is>
+      </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ToPDAd</t>
+          <t>ACT - Fra klimamål til handling: folks respons på virkemidler for utslippskutt</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://cicero.oslo.no/no/prosjekter/topdad</t>
+          <t>https://cicero.oslo.no/no/prosjekter/act-fra-klimamal-til-handling-folks-respons-pa-virkemidler-for-utslippskutt</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -12294,17 +12310,17 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1.10.2012</t>
+          <t>10.1.2017</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>30.9.2015</t>
+          <t>31.8.2022</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>1.10.2012 - 30.9.2015</t>
+          <t>10.1.2017 - 31.8.2022</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -12314,17 +12330,17 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>EU FP7</t>
+          <t>Norges Forskningsråd</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Virkninger av klimaendringer internasjonalt, Tilpasning</t>
+          <t>Aksept, Klimakommunikasjon</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Klimaøkonomi</t>
+          <t>Klima og samfunn</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -12334,23 +12350,23 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>Asbjørn Aaheim, Anton Orlov, Bob van Oort</t>
+          <t>Marianne Aasen, Marit Klemetsen, Astrid Arnslett, Eilif Ursin Reed, Arild Vatn</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Byvekstavtalenes bidrag til en bærekraftig areal- og transportutvikling</t>
+          <t>TRANSFORM - hvordan kan kommunene omstille seg til lavutslippssamfunnet</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://cicero.oslo.no/no/prosjekter/byvekstavtalenes-bidrag-til-en-baerekraftig-areal-og-transportutvikling</t>
+          <t>https://cicero.oslo.no/no/prosjekter/transform-hvordan-kan-kommunene-omstille-seg-til-lavutslippssamfunnet</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -12361,17 +12377,17 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1.9.2016</t>
+          <t>1.1.2017</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>31.12.2019</t>
+          <t>31.12.2022</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>1.9.2016 - 31.12.2019</t>
+          <t>1.1.2017 - 31.12.2022</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -12386,7 +12402,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Transport, Arealbruk</t>
+          <t>Klimaomstilling i norske kommuner</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -12401,23 +12417,23 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>Helene Amundsen, Anders Tønnesen, Astrid Arnslett</t>
+          <t>Frode Longva, Helene Amundsen, Grete Hovelsrud, Astrid Arnslett, Jennifer West</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Adaptation Actions for a Changing Arctic (AACA)</t>
+          <t>ACRoBEAR – risiko for skogbrann og vektorbårne sykdommer på høye breddegrader</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://cicero.oslo.no/no/prosjekter/adaptation-actions-for-a-changing-arctic-aaca</t>
+          <t>https://cicero.oslo.no/no/prosjekter/acrobear--risiko-for-skogbrann-og-vektorbarne-sykdommer-pa-hoye-breddegrader</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -12428,17 +12444,17 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1.4.2013</t>
+          <t>1.3.2020</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>31.12.2015</t>
+          <t>31.12.2022</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>1.4.2013 - 31.12.2015</t>
+          <t>1.3.2020 - 31.12.2022</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -12448,17 +12464,17 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>AMAP - Artic Monitoring and Assessment Programme</t>
+          <t>Norges forskningsråd</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Arktis</t>
+          <t>Skog, Temperaturendringer, Hetebølger</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Klima og samfunn, Utslippsreduksjoner</t>
+          <t>Klimasystemet</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -12468,23 +12484,23 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>Bob van Oort, Glen Peters</t>
+          <t>Marianne Tronstad Lund</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ACT - Fra klimamål til handling: folks respons på virkemidler for utslippskutt</t>
+          <t>ACCRI CIC-MOD</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://cicero.oslo.no/no/prosjekter/act-fra-klimamal-til-handling-folks-respons-pa-virkemidler-for-utslippskutt</t>
+          <t>https://cicero.oslo.no/no/prosjekter/accri-cic-mod</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -12493,39 +12509,23 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>10.1.2017</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>31.8.2022</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>10.1.2017 - 31.8.2022</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>avsluttet</t>
-        </is>
-      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Norges Forskningsråd</t>
+          <t>U.S. Federal Aviation Administration og U.S. Department of Transportation gjennom Aviation Climate Change Research Initiative (ACCRI)</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Aksept, Klimakommunikasjon</t>
+          <t>Transport, Luftforurensning</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Klima og samfunn</t>
+          <t>Klimasystemet</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -12535,23 +12535,23 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>Marianne Aasen, Marit Klemetsen, Astrid Arnslett, Eilif Ursin Reed, Arild Vatn</t>
+          <t>Jan S. Fuglestvedt, Marianne Tronstad Lund, Borgar Aamaas</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>TRANSFORM - hvordan kan kommunene omstille seg til lavutslippssamfunnet</t>
+          <t>AC/BC Sot: En utfordrende bit av klimapuslespillet</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://cicero.oslo.no/no/prosjekter/transform-hvordan-kan-kommunene-omstille-seg-til-lavutslippssamfunnet</t>
+          <t>https://cicero.oslo.no/no/prosjekter/ac-bc</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -12562,17 +12562,17 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>1.1.2017</t>
+          <t>1.1.2015</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>31.12.2022</t>
+          <t>31.12.2019</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>1.1.2017 - 31.12.2022</t>
+          <t>1.1.2015 - 31.12.2019</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -12582,17 +12582,17 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Norges Forskningsråd</t>
+          <t>FRINATEK-Fri prosj.st. mat.,naturv.,tek</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Klimaomstilling i norske kommuner</t>
+          <t>Luftforurensning, Partikler i atmosfæren</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Klima og samfunn</t>
+          <t>Klimasystemet</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -12602,23 +12602,23 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>Frode Longva, Helene Amundsen, Grete Hovelsrud, Astrid Arnslett, Jennifer West</t>
+          <t>Bjørn Hallvard Samset, Camilla Weum Stjern, Marianne Tronstad Lund</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ACRoBEAR – risiko for skogbrann og vektorbårne sykdommer på høye breddegrader</t>
+          <t>Verktøy for reduksjon av co₂-avtrykk i norsk kultursektor</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://cicero.oslo.no/no/prosjekter/acrobear--risiko-for-skogbrann-og-vektorbarne-sykdommer-pa-hoye-breddegrader</t>
+          <t>https://cicero.oslo.no/no/prosjekter/co2-avtrykk-i-norsk-kultursektor</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -12629,17 +12629,17 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1.3.2020</t>
+          <t>1.1.2021</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>31.12.2022</t>
+          <t>1.6.2023</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>1.3.2020 - 31.12.2022</t>
+          <t>1.1.2021 - 1.6.2023</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -12649,43 +12649,39 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Norges forskningsråd</t>
+          <t>Forskningsrådet</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Skog, Temperaturendringer, Hetebølger</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>Klimasystemet</t>
-        </is>
-      </c>
+          <t>Oppdragsforskning</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>Marianne Tronstad Lund</t>
+          <t>Borgar Aamaas, Emil Dæhlin, Gunnell Erika Sandanger</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ACCRI CIC-MOD</t>
+          <t>UPSCALE: Oppskalering av bærekraftig deling ved hjelp av offentlige biblioteker</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://cicero.oslo.no/no/prosjekter/accri-cic-mod</t>
+          <t>https://cicero.oslo.no/no/prosjekter/upscale-oppskalering-av-baerekraftig-deling-ved-hjelp-av-offentlige-biblioteker</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -12694,23 +12690,39 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>1.1.2020</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>31.12.2024</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>1.1.2020 - 31.12.2024</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>avsluttet</t>
+        </is>
+      </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>U.S. Federal Aviation Administration og U.S. Department of Transportation gjennom Aviation Climate Change Research Initiative (ACCRI)</t>
+          <t>Norges Forskningsråd</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Transport, Luftforurensning</t>
+          <t>Sirkulærøkonomi</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Klimasystemet</t>
+          <t>Klima og samfunn</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -12720,23 +12732,23 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>Jan S. Fuglestvedt, Marianne Tronstad Lund, Borgar Aamaas</t>
+          <t>Tom Julsrud, Monica Guillen-Royo, Karina Standal, Borgar Aamaas, Astrid Arnslett, Sandra Bakkevoll</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>AC/BC Sot: En utfordrende bit av klimapuslespillet</t>
+          <t>Vurdering av grønne obligasjoner</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://cicero.oslo.no/no/prosjekter/ac-bc</t>
+          <t>https://cicero.oslo.no/no/prosjekter/vurdering-av-gronne-obligasjoner</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -12745,65 +12757,45 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>1.1.2015</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>31.12.2019</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>1.1.2015 - 31.12.2019</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>avsluttet</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>FRINATEK-Fri prosj.st. mat.,naturv.,tek</t>
-        </is>
-      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Luftforurensning, Partikler i atmosfæren</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>Klimasystemet</t>
-        </is>
-      </c>
+          <t>Klimafinans</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>Bjørn Hallvard Samset, Camilla Weum Stjern, Marianne Tronstad Lund</t>
+          <t>Harald Francke Lund</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>https://cicero.green/Vurderingen</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Verktøy for reduksjon av co₂-avtrykk i norsk kultursektor</t>
+          <t>VOM - Virkemidler for Omstilling av Matsystemet</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://cicero.oslo.no/no/prosjekter/co2-avtrykk-i-norsk-kultursektor</t>
+          <t>https://cicero.oslo.no/no/prosjekter/vom-virkemidler-for-omstilling-av-matsystemet</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -12814,17 +12806,17 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1.1.2021</t>
+          <t>1.4.2021</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>1.6.2023</t>
+          <t>31.3.2025</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>1.1.2021 - 1.6.2023</t>
+          <t>1.4.2021 - 31.3.2025</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -12834,39 +12826,43 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Forskningsrådet</t>
+          <t>Norges Forskningsråd</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Oppdragsforskning</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr"/>
+          <t>Mat og landbruk</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Klima og samfunn</t>
+        </is>
+      </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>Borgar Aamaas, Emil Dæhlin, Gunnell Erika Sandanger</t>
+          <t>Bob van Oort, Nina Holmelin, Erlend Andre Tveiten Hermansen, Fay Madeleine Farstad, Borgar Aamaas, Katrine Skagen, Nora Ytreberg, Astrid Arnslett</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="O54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>UPSCALE: Oppskalering av bærekraftig deling ved hjelp av offentlige biblioteker</t>
+          <t>Global carbon budget</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://cicero.oslo.no/no/prosjekter/upscale-oppskalering-av-baerekraftig-deling-ved-hjelp-av-offentlige-biblioteker</t>
+          <t>https://cicero.oslo.no/no/prosjekter/global-carbon-budget</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -12875,39 +12871,19 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>1.1.2020</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>31.12.2024</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>1.1.2020 - 31.12.2024</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>avsluttet</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>Norges Forskningsråd</t>
-        </is>
-      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Sirkulærøkonomi</t>
+          <t>CO2-utslipp globalt, Utslippsscenarier</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Klima og samfunn</t>
+          <t>Utslippsreduksjoner</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -12917,23 +12893,23 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>Tom Julsrud, Monica Guillen-Royo, Karina Standal, Borgar Aamaas, Astrid Arnslett, Sandra Bakkevoll</t>
+          <t>Glen Peters, Robbie Andrew, Jan Ivar Korsbakken</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Vurdering av grønne obligasjoner</t>
+          <t>Økt, miljøtilpasset og mer robust norsk mathveteproduksjon</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://cicero.oslo.no/no/prosjekter/vurdering-av-gronne-obligasjoner</t>
+          <t>https://cicero.oslo.no/no/prosjekter/okt-miljotilpasset-og-mer-robust-norsk-mathveteproduksjon</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -12942,45 +12918,65 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>1.1.2024</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>31.12.2024</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>1.1.2024 - 31.12.2024</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>avsluttet</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Forskningsmidlene for jordbruk og matindustri, Landbruksdirektoratet</t>
+        </is>
+      </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Klimafinans</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr"/>
+          <t>Mat og landbruk, Tilpasning i Norge, Rettferdig omstilling</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Klima og samfunn</t>
+        </is>
+      </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>Harald Francke Lund</t>
+          <t>Nina Holmelin</t>
         </is>
       </c>
       <c r="N56" t="n">
         <v>1</v>
       </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>https://cicero.green/Vurderingen</t>
-        </is>
-      </c>
+      <c r="O56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>VOM - Virkemidler for Omstilling av Matsystemet</t>
+          <t>Stresstesting av norsk økonomi: Konsekvensene  av 1,5 gradersmålet  på globale energimarkeder og norsk økonomi</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://cicero.oslo.no/no/prosjekter/vom-virkemidler-for-omstilling-av-matsystemet</t>
+          <t>https://cicero.oslo.no/no/prosjekter/stresstesting-av-norsk-okonomi-konsekvensene-av-1-5-gradersmalet-pa-globale-energimarkeder-og-norsk-okonomi</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -12991,17 +12987,17 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>1.4.2021</t>
+          <t>1.9.2020</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>31.3.2025</t>
+          <t>31.12.2023</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>1.4.2021 - 31.3.2025</t>
+          <t>1.9.2020 - 31.12.2023</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -13016,12 +13012,12 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Mat og landbruk</t>
+          <t>Olje- og gasspolitikk, Globale klimamål, Utslippsscenarier</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Klima og samfunn</t>
+          <t>Klimaøkonomi</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -13031,23 +13027,23 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>Bob van Oort, Nina Holmelin, Erlend Andre Tveiten Hermansen, Fay Madeleine Farstad, Borgar Aamaas, Katrine Skagen, Nora Ytreberg, Astrid Arnslett</t>
+          <t>Taoyuan Wei, Solveig Glomsrød, Knut Einar Rosendahl</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="O57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Global carbon budget</t>
+          <t>Rammeavtale: Teknisk beregningsutvalg for klima</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://cicero.oslo.no/no/prosjekter/global-carbon-budget</t>
+          <t>https://cicero.oslo.no/no/prosjekter/rammeavtale-teknisk-beregningsutvalg-for-klima</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -13063,22 +13059,18 @@
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>CO2-utslipp globalt, Utslippsscenarier</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>Utslippsreduksjoner</t>
-        </is>
-      </c>
+          <t>Oppdragsforskning</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>Glen Peters, Robbie Andrew, Jan Ivar Korsbakken</t>
+          <t>Sofie Skjeflo, Asbjørn Torvanger, Nora Ytreberg</t>
         </is>
       </c>
       <c r="N58" t="n">
@@ -13089,12 +13081,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Økt, miljøtilpasset og mer robust norsk mathveteproduksjon</t>
+          <t>Fossilfri virksomhet 2025</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://cicero.oslo.no/no/prosjekter/okt-miljotilpasset-og-mer-robust-norsk-mathveteproduksjon</t>
+          <t>https://cicero.oslo.no/no/prosjekter/fossilfri-virksomhet-2025</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -13105,17 +13097,17 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>1.1.2024</t>
+          <t>1.1.2021</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>31.12.2024</t>
+          <t>28.2.2021</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>1.1.2024 - 31.12.2024</t>
+          <t>1.1.2021 - 28.2.2021</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -13125,27 +13117,23 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Forskningsmidlene for jordbruk og matindustri, Landbruksdirektoratet</t>
+          <t>Innlandet fylkeskommune</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Mat og landbruk, Tilpasning i Norge, Rettferdig omstilling</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>Klima og samfunn</t>
-        </is>
-      </c>
+          <t>Oppdragsforskning</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>Nina Holmelin</t>
+          <t>Borgar Aamaas</t>
         </is>
       </c>
       <c r="N59" t="n">
@@ -13156,12 +13144,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Stresstesting av norsk økonomi: Konsekvensene  av 1,5 gradersmålet  på globale energimarkeder og norsk økonomi</t>
+          <t>Indikatorer for grønn vekst i Agder</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://cicero.oslo.no/no/prosjekter/stresstesting-av-norsk-okonomi-konsekvensene-av-1-5-gradersmalet-pa-globale-energimarkeder-og-norsk-okonomi</t>
+          <t>https://cicero.oslo.no/no/prosjekter/indikatorer-for-gronn-vekst-i-agder</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -13172,17 +13160,17 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>1.9.2020</t>
+          <t>1.11.2017</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>31.12.2023</t>
+          <t>31.12.2017</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>1.9.2020 - 31.12.2023</t>
+          <t>1.11.2017 - 31.12.2017</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -13192,43 +13180,39 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Norges Forskningsråd</t>
+          <t>Aust-Agder Fylkeskommune</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Olje- og gasspolitikk, Globale klimamål, Utslippsscenarier</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>Klimaøkonomi</t>
-        </is>
-      </c>
+          <t>Oppdragsforskning</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>Taoyuan Wei, Solveig Glomsrød, Knut Einar Rosendahl</t>
+          <t>Borgar Aamaas</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Rammeavtale: Teknisk beregningsutvalg for klima</t>
+          <t>Assessment of carbon effects from two projects from the Rainforest Foundation Norway’s programme portfolio</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://cicero.oslo.no/no/prosjekter/rammeavtale-teknisk-beregningsutvalg-for-klima</t>
+          <t>https://cicero.oslo.no/no/prosjekter/assessment-of-carbon-effects-from-two-projects-from-the-rainforest-foundation-norways-programme-portfolio</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -13237,11 +13221,31 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>1.11.2018</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.6.2019</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>1.11.2018 - 1.6.2019</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>avsluttet</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Regnskogfondet</t>
+        </is>
+      </c>
       <c r="J61" t="inlineStr">
         <is>
           <t>Oppdragsforskning</t>
@@ -13255,23 +13259,23 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>Sofie Skjeflo, Asbjørn Torvanger, Nora Ytreberg</t>
+          <t>Borgar Aamaas</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Fossilfri virksomhet 2025</t>
+          <t>Rammeavtale for beregninger og analyser til klimabudsjett og annet klimaarbeid</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://cicero.oslo.no/no/prosjekter/fossilfri-virksomhet-2025</t>
+          <t>https://cicero.oslo.no/no/prosjekter/rammeavtale-for-beregninger-og-analyser-til-klimabudsjett-og-annet-klimaarbeid</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -13287,12 +13291,12 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>28.2.2021</t>
+          <t>31.12.2023</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>1.1.2021 - 28.2.2021</t>
+          <t>1.1.2021 - 31.12.2023</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -13302,7 +13306,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Innlandet fylkeskommune</t>
+          <t>Viken Fylkeskommune</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -13329,12 +13333,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Indikatorer for grønn vekst i Agder</t>
+          <t>Nordic Green to Scale: Effekt av nordiske klimaløsninger</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://cicero.oslo.no/no/prosjekter/indikatorer-for-gronn-vekst-i-agder</t>
+          <t>https://cicero.oslo.no/no/prosjekter/nordic-green-to-scale-effekt-av-nordiske-klimalosninger</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -13345,17 +13349,17 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>1.11.2017</t>
+          <t>1.1.2016</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>31.12.2017</t>
+          <t>1.11.2016</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>1.11.2017 - 31.12.2017</t>
+          <t>1.1.2016 - 1.11.2016</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -13365,7 +13369,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Aust-Agder Fylkeskommune</t>
+          <t>Nordisk Ministerråd</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -13381,23 +13385,23 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>Borgar Aamaas</t>
+          <t>Jan Ivar Korsbakken, Borgar Aamaas</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Assessment of carbon effects from two projects from the Rainforest Foundation Norway’s programme portfolio</t>
+          <t>10 klimatiltak for å nå Parismålene</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://cicero.oslo.no/no/prosjekter/assessment-of-carbon-effects-from-two-projects-from-the-rainforest-foundation-norways-programme-portfolio</t>
+          <t>https://cicero.oslo.no/no/prosjekter/10-klimatiltak-for-a-na-parismalene</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -13408,17 +13412,17 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1.11.2018</t>
+          <t>1.1.2019</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>1.6.2019</t>
+          <t>31.12.2020</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>1.11.2018 - 1.6.2019</t>
+          <t>1.1.2019 - 31.12.2020</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -13426,16 +13430,8 @@
           <t>avsluttet</t>
         </is>
       </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>Regnskogfondet</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Oppdragsforskning</t>
-        </is>
-      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
@@ -13455,12 +13451,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Rammeavtale for beregninger og analyser til klimabudsjett og annet klimaarbeid</t>
+          <t>Utvikling og implementering av bærekraftsindikatorer og klimaregnskap for Oslo kommune og Oslo-samfunnet</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://cicero.oslo.no/no/prosjekter/rammeavtale-for-beregninger-og-analyser-til-klimabudsjett-og-annet-klimaarbeid</t>
+          <t>https://cicero.oslo.no/no/prosjekter/utvikling-og-implementering-av-baerekraftsindikatorer-og-klimaregnskap-for-oslo-kommune-og-oslo-samfunnet</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -13476,12 +13472,12 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>31.12.2023</t>
+          <t>31.12.2021</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>1.1.2021 - 31.12.2023</t>
+          <t>1.1.2021 - 31.12.2021</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -13489,16 +13485,8 @@
           <t>avsluttet</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>Viken Fylkeskommune</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>Oppdragsforskning</t>
-        </is>
-      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
@@ -13518,12 +13506,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Nordic Green to Scale: Effekt av nordiske klimaløsninger</t>
+          <t>Vurdering av hva FNs klimapanels spesialrapporter om landarealer, hav og is og Naturpanelets rapport innebærer for Oslo</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://cicero.oslo.no/no/prosjekter/nordic-green-to-scale-effekt-av-nordiske-klimalosninger</t>
+          <t>https://cicero.oslo.no/no/prosjekter/vurdering-av-hva-fns-klimapanels-spesialrapporter-om-landarealer-hav-og-is-og-naturpanelets-rapport-innebaerer-for-oslo</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -13534,17 +13522,17 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>1.1.2016</t>
+          <t>1.1.2021</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>1.11.2016</t>
+          <t>31.12.2021</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>1.1.2016 - 1.11.2016</t>
+          <t>1.1.2021 - 31.12.2021</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -13552,16 +13540,8 @@
           <t>avsluttet</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>Nordisk Ministerråd</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>Oppdragsforskning</t>
-        </is>
-      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
@@ -13570,23 +13550,23 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>Jan Ivar Korsbakken, Borgar Aamaas</t>
+          <t>Borgar Aamaas</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ICOS Norway – Integrert karbonobservasjonssystem</t>
+          <t>Bergens klimagassutslipp mot 2030. Referansebane og mulighetsscenarier.</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://cicero.oslo.no/no/prosjekter/icos-norway--integrert-karbonobservasjonssystem</t>
+          <t>https://cicero.oslo.no/no/prosjekter/bergens-klimagassutslipp-mot-2030.referansebane-og-mulighetsscenarier</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -13597,17 +13577,17 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>1.8.2016</t>
+          <t>1.1.2020</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>1.9.2021</t>
+          <t>31.1.2021</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>1.8.2016 - 1.9.2021</t>
+          <t>1.1.2020 - 31.1.2021</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -13617,7 +13597,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Norges Forskningsråd</t>
+          <t>Bergen kommune</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -13633,23 +13613,23 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>Jan Ivar Korsbakken</t>
+          <t>Borgar Aamaas, Reidun Romundstad</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>10 klimatiltak for å nå Parismålene</t>
+          <t>Referansebane og framskrivning for Oslos klimagassutslipp mot 2030</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://cicero.oslo.no/no/prosjekter/10-klimatiltak-for-a-na-parismalene</t>
+          <t>https://cicero.oslo.no/no/prosjekter/referansebane-og-framskrivning-for-oslos-klimagassutslipp-mot-2030</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -13660,17 +13640,17 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>1.1.2019</t>
+          <t>1.1.2018</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>31.12.2020</t>
+          <t>31.12.2018</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>1.1.2019 - 31.12.2020</t>
+          <t>1.1.2018 - 31.12.2018</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -13678,8 +13658,16 @@
           <t>avsluttet</t>
         </is>
       </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Klimaetaten, Oslo kommune</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Oppdragsforskning</t>
+        </is>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
@@ -13688,23 +13676,23 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>Borgar Aamaas</t>
+          <t>Borgar Aamaas, Jan Ivar Korsbakken, Reidun Romundstad</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Utvikling og implementering av bærekraftsindikatorer og klimaregnskap for Oslo kommune og Oslo-samfunnet</t>
+          <t>Case-studier av klimafotavtrykk ved offentlige anskaffelser for Difi</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://cicero.oslo.no/no/prosjekter/utvikling-og-implementering-av-baerekraftsindikatorer-og-klimaregnskap-for-oslo-kommune-og-oslo-samfunnet</t>
+          <t>https://cicero.oslo.no/no/prosjekter/case-studier-av-klimafotavtrykk-ved-offentlige-anskaffelser-for-difi</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -13715,17 +13703,17 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>1.1.2021</t>
+          <t>1.8.2017</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>31.12.2021</t>
+          <t>30.11.2017</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>1.1.2021 - 31.12.2021</t>
+          <t>1.8.2017 - 30.11.2017</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -13733,8 +13721,16 @@
           <t>avsluttet</t>
         </is>
       </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>DFØ</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Oppdragsforskning</t>
+        </is>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
@@ -13754,12 +13750,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Vurdering av hva FNs klimapanels spesialrapporter om landarealer, hav og is og Naturpanelets rapport innebærer for Oslo</t>
+          <t>Hva betyr Parisavtalen for Østfold? – En beskrivende analyse</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://cicero.oslo.no/no/prosjekter/vurdering-av-hva-fns-klimapanels-spesialrapporter-om-landarealer-hav-og-is-og-naturpanelets-rapport-innebaerer-for-oslo</t>
+          <t>https://cicero.oslo.no/no/prosjekter/hva-betyr-parisavtalen-for-ostfold--en-beskrivende-analyse</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -13770,17 +13766,17 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>1.1.2021</t>
+          <t>1.4.2019</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>31.12.2021</t>
+          <t>30.6.2019</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>1.1.2021 - 31.12.2021</t>
+          <t>1.4.2019 - 30.6.2019</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -13788,8 +13784,16 @@
           <t>avsluttet</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Klima Østfold</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Oppdragsforskning</t>
+        </is>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
@@ -13798,23 +13802,23 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>Borgar Aamaas</t>
+          <t>Borgar Aamaas, Jan Ivar Korsbakken, Reidun Romundstad</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Bergens klimagassutslipp mot 2030. Referansebane og mulighetsscenarier.</t>
+          <t>Lavutslippsomstilling for Oslo basert på 1,5-gradersrapporten</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://cicero.oslo.no/no/prosjekter/bergens-klimagassutslipp-mot-2030.referansebane-og-mulighetsscenarier</t>
+          <t>https://cicero.oslo.no/no/prosjekter/lavutslippsomstilling-for-oslo-basert-pa-1-5-gradersrapporten</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -13825,17 +13829,17 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1.1.2020</t>
+          <t>1.10.2018</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>31.1.2021</t>
+          <t>1.12.2018</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>1.1.2020 - 31.1.2021</t>
+          <t>1.10.2018 - 1.12.2018</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -13845,7 +13849,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Bergen kommune</t>
+          <t>Oslo kommune</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -13861,23 +13865,23 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>Borgar Aamaas, Reidun Romundstad</t>
+          <t>Borgar Aamaas</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Referansebane og framskrivning for Oslos klimagassutslipp mot 2030</t>
+          <t>Bistand til arbeid med lokale datakilder på klima</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://cicero.oslo.no/no/prosjekter/referansebane-og-framskrivning-for-oslos-klimagassutslipp-mot-2030</t>
+          <t>https://cicero.oslo.no/no/prosjekter/bistand-til-arbeid-med-lokale-datakilder-pa-klima</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -13888,17 +13892,17 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>1.1.2018</t>
+          <t>1.8.2020</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>31.12.2018</t>
+          <t>30.11.2020</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>1.1.2018 - 31.12.2018</t>
+          <t>1.8.2020 - 30.11.2020</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -13924,23 +13928,23 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>Borgar Aamaas, Jan Ivar Korsbakken, Reidun Romundstad</t>
+          <t>Reidun Romundstad, Jan Ivar Korsbakken</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Case-studier av klimafotavtrykk ved offentlige anskaffelser for Difi</t>
+          <t>Vestlands klimagassutslepp mot 2030. Referansebane og tiltakspakker</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://cicero.oslo.no/no/prosjekter/case-studier-av-klimafotavtrykk-ved-offentlige-anskaffelser-for-difi</t>
+          <t>https://cicero.oslo.no/no/prosjekter/vestlands-klimagassutslepp-mot-2030.referansebane-og-tiltakspakker</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -13951,17 +13955,17 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>1.8.2017</t>
+          <t>1.9.2021</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>30.11.2017</t>
+          <t>31.3.2022</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>1.8.2017 - 30.11.2017</t>
+          <t>1.9.2021 - 31.3.2022</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -13971,7 +13975,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>DFØ</t>
+          <t>Vestland fylkeskommune</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -13987,23 +13991,23 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>Borgar Aamaas</t>
+          <t>Borgar Aamaas, Jan Ivar Korsbakken, Reidun Romundstad</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Hva betyr Parisavtalen for Østfold? – En beskrivende analyse</t>
+          <t>Referansebane for klimagassutslipp i Oslo fram til 2030</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://cicero.oslo.no/no/prosjekter/hva-betyr-parisavtalen-for-ostfold--en-beskrivende-analyse</t>
+          <t>https://cicero.oslo.no/no/prosjekter/referansebane-for-klimagassutslipp-i-oslo-fram-til-2030</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -14014,17 +14018,17 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>1.4.2019</t>
+          <t>1.10.2021</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>30.6.2019</t>
+          <t>31.5.2022</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>1.4.2019 - 30.6.2019</t>
+          <t>1.10.2021 - 31.5.2022</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -14034,7 +14038,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Klima Østfold</t>
+          <t>Oslo Kommune</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -14050,23 +14054,23 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>Borgar Aamaas, Jan Ivar Korsbakken, Reidun Romundstad</t>
+          <t>Reidun Romundstad</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Lavutslippsomstilling for Oslo basert på 1,5-gradersrapporten</t>
+          <t>Referansebane for klimagassutslipp i kommuner i Klima Østfold</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://cicero.oslo.no/no/prosjekter/lavutslippsomstilling-for-oslo-basert-pa-1-5-gradersrapporten</t>
+          <t>https://cicero.oslo.no/no/prosjekter/referansebane-for-klimagassutslipp-i-kommuner-i-klima-ostfold</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -14077,17 +14081,17 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>1.10.2018</t>
+          <t>1.1.2022</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>1.12.2018</t>
+          <t>31.10.2022</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>1.10.2018 - 1.12.2018</t>
+          <t>1.1.2022 - 31.10.2022</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -14097,7 +14101,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Oslo kommune</t>
+          <t>Viken fylkeskommune og Klima Østfold</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -14113,23 +14117,23 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>Borgar Aamaas</t>
+          <t>Reidun Romundstad, Jan Ivar Korsbakken, Ragnhild Børke</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Bistand til arbeid med lokale datakilder på klima</t>
+          <t>ReGame: Pålitelige utslippsestimater for metan i en verden som endres</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://cicero.oslo.no/no/prosjekter/bistand-til-arbeid-med-lokale-datakilder-pa-klima</t>
+          <t>https://cicero.oslo.no/no/prosjekter/regame</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -14140,17 +14144,17 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>1.8.2020</t>
+          <t>1.12.2021</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>30.11.2020</t>
+          <t>31.12.2025</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>1.8.2020 - 30.11.2020</t>
+          <t>1.12.2021 - 31.12.2025</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -14160,39 +14164,43 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Klimaetaten, Oslo kommune</t>
+          <t>Research Council of Norway</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Oppdragsforskning</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr"/>
+          <t>Metan</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Atmosfæreforskning</t>
+        </is>
+      </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>Reidun Romundstad, Jan Ivar Korsbakken</t>
+          <t>Gunnar Myhre, Øivind Hodnebrog, Ragnhild Bieltvedt Skeie</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Vestlands klimagassutslepp mot 2030. Referansebane og tiltakspakker</t>
+          <t>Sustainable Edge: ny metodikk for å vurdere hvor grønt et selskap er</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://cicero.oslo.no/no/prosjekter/vestlands-klimagassutslepp-mot-2030.referansebane-og-tiltakspakker</t>
+          <t>https://cicero.oslo.no/no/prosjekter/sustainable-edge</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -14201,36 +14209,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>1.9.2021</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>31.3.2022</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>1.9.2021 - 31.3.2022</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>avsluttet</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>Vestland fylkeskommune</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>Oppdragsforskning</t>
-        </is>
-      </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
@@ -14239,312 +14223,13 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>Borgar Aamaas, Jan Ivar Korsbakken, Reidun Romundstad</t>
+          <t>Kristina Alnes, Alexander Berg, Christa Clapp, Harald Francke Lund, Bernhard Schiessl, Knut Alfsen, Miriam Dahl, Eilif Ursin Reed</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="O77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Referansebane for klimagassutslipp i Oslo fram til 2030</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>https://cicero.oslo.no/no/prosjekter/referansebane-for-klimagassutslipp-i-oslo-fram-til-2030</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>1.10.2021</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>31.5.2022</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>1.10.2021 - 31.5.2022</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>avsluttet</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>Oslo Kommune</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>Oppdragsforskning</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>Reidun Romundstad</t>
-        </is>
-      </c>
-      <c r="N78" t="n">
-        <v>1</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Referansebane for klimagassutslipp i kommuner i Klima Østfold</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>https://cicero.oslo.no/no/prosjekter/referansebane-for-klimagassutslipp-i-kommuner-i-klima-ostfold</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>1.1.2022</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>31.10.2022</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>1.1.2022 - 31.10.2022</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>avsluttet</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>Viken fylkeskommune og Klima Østfold</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Oppdragsforskning</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>Reidun Romundstad, Jan Ivar Korsbakken, Ragnhild Børke</t>
-        </is>
-      </c>
-      <c r="N79" t="n">
-        <v>3</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>ReGame: Pålitelige utslippsestimater for metan i en verden som endres</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>https://cicero.oslo.no/no/prosjekter/regame</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>1.12.2021</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>31.12.2025</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>1.12.2021 - 31.12.2025</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>avsluttet</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>Research Council of Norway</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Metan</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>Atmosfæreforskning</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>Gunnar Myhre, Øivind Hodnebrog, Ragnhild Bieltvedt Skeie</t>
-        </is>
-      </c>
-      <c r="N80" t="n">
-        <v>3</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>ACCEPT: Aerosoler, skyendringer og varmetransport inn i polare områder og viktigheten av lokale tilbakekoblinger</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>https://cicero.oslo.no/no/prosjekter/accept-aerosoler-skyendringer-og-varmetransport-inn-i-polare-omrader-og-viktigheten-av-lokale-tilbakekoblinger</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>1.1.2021</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>31.12.2024</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>1.1.2021 - 31.12.2024</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>avsluttet</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>Norges forskningsråd</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>Arktis, Partikler i atmosfæren, Klimamodeller</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>Atmosfæreforskning</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>Maria Sand, Camilla Weum Stjern, Anne Sophie Daloz, Gunnar Myhre</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
-        <v>4</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>Sustainable Edge: ny metodikk for å vurdere hvor grønt et selskap er</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>https://cicero.oslo.no/no/prosjekter/sustainable-edge</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>Kristina Alnes, Alexander Berg, Christa Clapp, Harald Francke Lund, Bernhard Schiessl, Knut Alfsen, Miriam Dahl, Eilif Ursin Reed</t>
-        </is>
-      </c>
-      <c r="N82" t="n">
-        <v>8</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16103,10 +15788,14 @@
           <t>https://cicero.oslo.no/no/prosjekter/icos-norway--integrert-karbonobservasjonssystem</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://cicero.oslo.no/en/projects/icos</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -17486,10 +17175,14 @@
           <t>https://cicero.oslo.no/no/prosjekter/europes-evolving-market-design-towards-2040-electricity-market-reform-and-decision-making-during-its-implementation-copy</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://cicero.oslo.no/en/projects/europes-evolving-market-design-towards-2040-electricity-market-reform-and-decision-making-during-its-implementation</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -18180,10 +17873,14 @@
           <t>https://cicero.oslo.no/no/prosjekter/include-forskningssenter-for-sosialt-inkluderende-energiomstilling</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://cicero.oslo.no/en/projects/include</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -19463,10 +19160,14 @@
           <t>https://cicero.oslo.no/no/prosjekter/enbel-klima-og-helseeffekter</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://cicero.oslo.no/en/projects/enbel</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -23388,10 +23089,14 @@
           <t>https://cicero.oslo.no/no/prosjekter/icos-norway--integrert-karbonobservasjonssystem</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr"/>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>https://cicero.oslo.no/en/projects/icos</t>
+        </is>
+      </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -24676,10 +24381,14 @@
           <t>https://cicero.oslo.no/no/prosjekter/accept-aerosoler-skyendringer-og-varmetransport-inn-i-polare-omrader-og-viktigheten-av-lokale-tilbakekoblinger</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr"/>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>https://cicero.oslo.no/en/projects/accept</t>
+        </is>
+      </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -25210,7 +24919,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
@@ -25220,7 +24929,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
